--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2347.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2347.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9907577750729558</v>
+        <v>0.9987067580223083</v>
       </c>
       <c r="B1">
-        <v>1.541692211027718</v>
+        <v>2.110029220581055</v>
       </c>
       <c r="C1">
-        <v>3.283738218821878</v>
+        <v>6.957849502563477</v>
       </c>
       <c r="D1">
-        <v>2.429631637745501</v>
+        <v>2.063240051269531</v>
       </c>
       <c r="E1">
-        <v>1.107594120456719</v>
+        <v>1.375236511230469</v>
       </c>
     </row>
   </sheetData>
